--- a/biology/Médecine/Collège_des_médecins_du_Québec/Collège_des_médecins_du_Québec.xlsx
+++ b/biology/Médecine/Collège_des_médecins_du_Québec/Collège_des_médecins_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+          <t>Collège_des_médecins_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Collège des médecins du Québec (CMQ) est l'ordre professionnel des médecins du Québec. Sa mission dès son origine au milieu du XIXe siècle est de « protéger les personnes en donnant une médecine professionnelle de qualité ».
-En 2022, le CMQ célèbre son 175ᵉ anniversaire[1].
+En 2022, le CMQ célèbre son 175ᵉ anniversaire.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+          <t>Collège_des_médecins_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,55 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Incorporé en 1847, le Collège des médecins et des chirurgiens du Bas-Canada est formé de 190 médecins. Le Dr Daniel Arnoldi en est le premier président. 
 La grande charte de 1847 donne au corps médical du Bas-Canada le pouvoir d’établir ses propres règlements pour l’étude et la pratique de la médecine. La Loi de 1876 rend obligatoire l’inscription de tous les médecins licenciés en territoire québécois. La profession médicale y obtient par ailleurs un renforcement de son autonomie vis-à-vis des pouvoirs publics, dont découlera notamment le principe de liberté du lieu d’exercice. 
-Le Dr Emmanuel-Persillier Lachapelle, président du Collège de 1898 à 1907, effectue de nombreuses transformations au sein des activités internes et externes de l’ordre. Rédaction d’un code de déontologie, mise sur pied d’un conseil de discipline, réforme des structures administratives et resserrement des contrôles comptables, obtention du droit exclusif de décerner les licences de pratique, augmentation des pouvoirs de répression à l’endroit des praticiens illégaux, entre autres, orienteront les grandes lignes du Collège jusqu’en 1960. Le Collège obtient le pouvoir juridique de sanctionner ses membres par un conseil de discipline[2].
-En 1974, le Code des professions entre en vigueur et le Collège modifie son nom pour la Corporation professionnelle des médecins du Québec (CPMQ). Le Code des professions et la Loi médicale confirment les obligations du Collège pour ce qui a trait à la protection du public, à la surveillance de l’exercice de la profession et à l’éducation médicale continue. En outre, il reconnaît au Collège le pouvoir juridique d’autogestion et d’autocontrôle axé sur un modèle préventif dominant. La même année, le Dr Augustin Roy est élu président, fonction qu’il occupera pendant 20 ans. Avec le Dr André Lapierre, secrétaire général adjoint, ils forment un tandem qui marquera profondément l’histoire du Collège en misant notamment sur des réalisations positives, telles que l’éducation médicale continue pour élever la qualité de la médecine et la compétence des médecins[précision nécessaire]. Dr Roy tient à défendre à tout prix l’autonomie et la liberté du Collège face aux bouleversements survenant dans le domaine de la santé. Sous sa gouverne, l’Ordre vit une période de modernisation intense[2].
-En 1994, les administrateurs adoptent la désignation Collège des médecins du Québec. Le Dr Roch Bernier est élu président. La nomination de la Dre Joelle Lescop au poste de secrétaire et directrice générale constitue une percée significative des femmes au sein de l’administration du Collège[3].
-En 1998, le Dr Yves Lamontagne est élu à la présidence du Collège pour son premier mandat. De nombreuses prises de positions sont adoptées par le Collège pour appliquer certaines recommandations de la Commission sur l’exercice de la médecine des années 2000. La création du nouveau système de surveillance et d’amélioration de l’exercice a lieu en 1998, elle met l’accent sur l’information pouvant aider les médecins à améliorer la qualité de leur pratique[3].
-En 2010, le Dr Charles Bernard est élu à la présidence du Collège des médecins du Québec[2]. En 2016, les bureaux du CMQ déménagent au 1250 boulevard René-Lévesque ouest, bureau 3500, à Montréal[2].
-En 2018, le Dr Mauril Gaudreault est élu à la présidence du Collège des médecins du Québec[2]. En 2020, le Collège des médecins du Québec annonce le Virage 2023[précision nécessaire].
-Les présidents du Collège des médecins du Québec[3]
+Le Dr Emmanuel-Persillier Lachapelle, président du Collège de 1898 à 1907, effectue de nombreuses transformations au sein des activités internes et externes de l’ordre. Rédaction d’un code de déontologie, mise sur pied d’un conseil de discipline, réforme des structures administratives et resserrement des contrôles comptables, obtention du droit exclusif de décerner les licences de pratique, augmentation des pouvoirs de répression à l’endroit des praticiens illégaux, entre autres, orienteront les grandes lignes du Collège jusqu’en 1960. Le Collège obtient le pouvoir juridique de sanctionner ses membres par un conseil de discipline.
+En 1974, le Code des professions entre en vigueur et le Collège modifie son nom pour la Corporation professionnelle des médecins du Québec (CPMQ). Le Code des professions et la Loi médicale confirment les obligations du Collège pour ce qui a trait à la protection du public, à la surveillance de l’exercice de la profession et à l’éducation médicale continue. En outre, il reconnaît au Collège le pouvoir juridique d’autogestion et d’autocontrôle axé sur un modèle préventif dominant. La même année, le Dr Augustin Roy est élu président, fonction qu’il occupera pendant 20 ans. Avec le Dr André Lapierre, secrétaire général adjoint, ils forment un tandem qui marquera profondément l’histoire du Collège en misant notamment sur des réalisations positives, telles que l’éducation médicale continue pour élever la qualité de la médecine et la compétence des médecins[précision nécessaire]. Dr Roy tient à défendre à tout prix l’autonomie et la liberté du Collège face aux bouleversements survenant dans le domaine de la santé. Sous sa gouverne, l’Ordre vit une période de modernisation intense.
+En 1994, les administrateurs adoptent la désignation Collège des médecins du Québec. Le Dr Roch Bernier est élu président. La nomination de la Dre Joelle Lescop au poste de secrétaire et directrice générale constitue une percée significative des femmes au sein de l’administration du Collège.
+En 1998, le Dr Yves Lamontagne est élu à la présidence du Collège pour son premier mandat. De nombreuses prises de positions sont adoptées par le Collège pour appliquer certaines recommandations de la Commission sur l’exercice de la médecine des années 2000. La création du nouveau système de surveillance et d’amélioration de l’exercice a lieu en 1998, elle met l’accent sur l’information pouvant aider les médecins à améliorer la qualité de leur pratique.
+En 2010, le Dr Charles Bernard est élu à la présidence du Collège des médecins du Québec. En 2016, les bureaux du CMQ déménagent au 1250 boulevard René-Lévesque ouest, bureau 3500, à Montréal.
+En 2018, le Dr Mauril Gaudreault est élu à la présidence du Collège des médecins du Québec. En 2020, le Collège des médecins du Québec annonce le Virage 2023[précision nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Collège_des_médecins_du_Québec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les présidents du Collège des médecins du Québec[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1847 - 1849 : Daniel Arnoldi
 1849 - 1850 : Wolfred Nelson
 1850 - 1853 : Joseph Morrin
@@ -562,45 +612,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mission</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mission principale du CMQ est de surveiller et d'évaluer la qualité de l'offre médicale dans le but de protéger le grand public. Pour ce faire, le CMQ est chargé de la délivrance des permis et des autorisations d'exercice ainsi que du contrôle de l'exercice illégal de la médecine.
-Il peut dans une mesure plus large recevoir et traiter les plaintes du public ainsi qu'émettre des recommandations visant à l'amélioration de la pratique médicale[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+          <t>Collège_des_médecins_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,16 +633,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Effectifs médicaux</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À la date du 26 juillet 2021, le tableau du Collège des médecins compte 24 819 membres, dont 22 131 médecins actifs[5].
-Médecins actifs et inactifs[6]
-Répartition des médecins selon le groupe d'âge et selon le sexe[7]
-Répartition des médecins selon la région administrative[8]
-Répartition des médecins selon les certificats de spécialité[9]</t>
+          <t>Mission</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mission principale du CMQ est de surveiller et d'évaluer la qualité de l'offre médicale dans le but de protéger le grand public. Pour ce faire, le CMQ est chargé de la délivrance des permis et des autorisations d'exercice ainsi que du contrôle de l'exercice illégal de la médecine.
+Il peut dans une mesure plus large recevoir et traiter les plaintes du public ainsi qu'émettre des recommandations visant à l'amélioration de la pratique médicale.
+</t>
         </is>
       </c>
     </row>
@@ -634,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+          <t>Collège_des_médecins_du_Québec</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,13 +667,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Conseil d'administration et comité exécutif</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le Conseil d’administration du Collège des médecins veille à l’administration générale des affaires du Collège et à l’application des dispositions du Code des professions, de la Loi médicale et des règlements qui en découlent. Il exerce tous les droits, pouvoirs et prérogatives du Collège, sauf ceux qui sont du ressort des membres du Collège réunis en assemblée générale. »[10]
-Le président du Collège des médecins du Québec est élu par les administrateurs élus du Conseil d’administration, dont il doit faire partie. Son mandat est de quatre ans. Un comité exécutif (comité de direction), composé de cinq membres, s’occupe de l’administration courante des affaires du Collège et exerce les pouvoirs que le Conseil d’administration lui délègue[11].
+          <t>Effectifs médicaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la date du 26 juillet 2021, le tableau du Collège des médecins compte 24 819 membres, dont 22 131 médecins actifs.
 </t>
         </is>
       </c>
@@ -666,7 +685,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+          <t>Collège_des_médecins_du_Québec</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,12 +700,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Conseil d'administration et comité exécutif</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le Conseil d’administration du Collège des médecins veille à l’administration générale des affaires du Collège et à l’application des dispositions du Code des professions, de la Loi médicale et des règlements qui en découlent. Il exerce tous les droits, pouvoirs et prérogatives du Collège, sauf ceux qui sont du ressort des membres du Collège réunis en assemblée générale. »
+Le président du Collège des médecins du Québec est élu par les administrateurs élus du Conseil d’administration, dont il doit faire partie. Son mandat est de quatre ans. Un comité exécutif (comité de direction), composé de cinq membres, s’occupe de l’administration courante des affaires du Collège et exerce les pouvoirs que le Conseil d’administration lui délègue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Collège_des_médecins_du_Québec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_des_m%C3%A9decins_du_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les médecins québécois sont assujettis à la Loi médicale, au Code des professions ainsi qu’aux divers règlements adoptés par le Collège des médecins du Québec. Afin de s’acquitter des divers mandats qui lui incombent et qui découlent de sa mission, le Collège des médecins du Québec procède régulièrement à l’élaboration ou à la révision de règlements, qui visent à ce que l’exercice de la médecine au Québec reflète fidèlement des normes éthiques et déontologiques élevées pour garantir au public une médecine de qualité[12].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les médecins québécois sont assujettis à la Loi médicale, au Code des professions ainsi qu’aux divers règlements adoptés par le Collège des médecins du Québec. Afin de s’acquitter des divers mandats qui lui incombent et qui découlent de sa mission, le Collège des médecins du Québec procède régulièrement à l’élaboration ou à la révision de règlements, qui visent à ce que l’exercice de la médecine au Québec reflète fidèlement des normes éthiques et déontologiques élevées pour garantir au public une médecine de qualité.
 </t>
         </is>
       </c>
